--- a/final_table.xlsx
+++ b/final_table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
   <si>
     <t>origin</t>
   </si>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -211,6 +211,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,10 +511,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,10 +524,10 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
@@ -543,7 +549,7 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -558,7 +564,7 @@
       <c r="E2" s="2">
         <v>0.19524</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -585,7 +591,7 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -598,7 +604,7 @@
       <c r="E3" s="2">
         <v>0.10879</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
@@ -626,10 +632,10 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,10 +645,10 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
@@ -664,7 +670,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -679,7 +685,7 @@
       <c r="E6" s="2">
         <v>0.20150000000000001</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -706,7 +712,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -719,7 +725,7 @@
       <c r="E7" s="2">
         <v>0.17285</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
@@ -747,10 +753,10 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,10 +766,10 @@
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -785,7 +791,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -800,7 +806,7 @@
       <c r="E10" s="2">
         <v>0.17404</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -827,7 +833,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,7 +846,7 @@
       <c r="E11" s="2">
         <v>0.1817</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
@@ -870,10 +876,10 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,10 +889,10 @@
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
@@ -908,7 +914,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -923,7 +929,7 @@
       <c r="E14" s="2">
         <v>0.20379</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -950,7 +956,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -963,7 +969,7 @@
       <c r="E15" s="2">
         <v>0.11984</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
@@ -987,10 +993,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,10 +1006,10 @@
       <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1030,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1039,7 +1045,7 @@
       <c r="E18" s="2">
         <v>0.15322</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1065,7 +1071,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1084,7 @@
       <c r="E19" s="2">
         <v>0.15367</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,10 +1108,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1115,10 +1121,10 @@
       <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1145,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1154,7 +1160,7 @@
       <c r="E22" s="2">
         <v>0.13466</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1180,7 +1186,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1199,7 @@
       <c r="E23" s="2">
         <v>0.2041</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1306,20 +1312,455 @@
         <v>0.6917151399</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.47059000000000001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7.1429999999999993E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.19524</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.34677999999999998</v>
+      </c>
+      <c r="G34" s="4">
+        <v>73.690569999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.10274</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.10879</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.72835000000000005</v>
+      </c>
+      <c r="G35" s="4">
+        <v>99.175240000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.32205</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.0960000000000004E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.20150999999999999</v>
+      </c>
+      <c r="G38" s="4">
+        <v>62.570569999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.79042999999999997</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.11284</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.17285</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.73043000000000002</v>
+      </c>
+      <c r="G39" s="4">
+        <v>92.408779999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.30345</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8.0079999999999998E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.17404</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.20949000000000001</v>
+      </c>
+      <c r="G42" s="4">
+        <v>69.035300000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.59660999999999997</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.12253</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.1817</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.53744999999999998</v>
+      </c>
+      <c r="G43" s="4">
+        <v>90.083389999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.46446999999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5.6270000000000001E-2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.20379</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.31695000000000001</v>
+      </c>
+      <c r="G46" s="4">
+        <v>68.238749999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.77834999999999999</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8.6360000000000006E-2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.11984</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.74485999999999997</v>
+      </c>
+      <c r="G47" s="4">
+        <v>95.698329999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3.3430000000000001E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.15322</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.22101000000000001</v>
+      </c>
+      <c r="G50" s="4">
+        <v>64.850909999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.82655999999999996</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8.2669999999999993E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.15367</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.75555000000000005</v>
+      </c>
+      <c r="G51" s="4">
+        <v>91.409419999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.30166999999999999</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4.9639999999999997E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.13466</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.21665000000000001</v>
+      </c>
+      <c r="G54" s="4">
+        <v>71.818399999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.63688</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.10808</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.2041</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.54085000000000005</v>
+      </c>
+      <c r="G55" s="4">
+        <v>84.922700000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="36">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
@@ -1332,6 +1773,18 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_table.xlsx
+++ b/final_table.xlsx
@@ -273,9 +273,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,1279 +581,1288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1.1994375624831199</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.121714762494866</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.67781838655058602</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1.1994375624831199</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>0.55610362405572</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0.52161917593253393</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>0.121714762494866</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.64333393842739994</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>53.636300758794498</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.24623015907892</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.114968193929814</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.53225981879400497</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>1.24623015907892</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.41729162486419097</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>0.71397034028491502</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.114968193929814</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.82893853421472907</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>66.515685579892548</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.94356043189376204</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.130869938692837</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.52937107721493404</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.94356043189376204</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.39850113852209701</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.414189354678828</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>0.130869938692837</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.54505929337166503</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>57.766230433986095</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.3232804597406</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.26848944036150502</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.80107617806493903</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1.3232804597406</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.53258673770343401</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.52220428167566102</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>0.26848944036150502</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.79069372203716604</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>59.752542721908256</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.93298087103204397</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.13596279046608001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.50174949264278601</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.93298087103204397</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.365786702176706</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.43123137838925796</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>0.13596279046608001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.56719416885533791</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>60.793761851507156</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.84696747517786697</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.35821673238287399</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.64089388419087601</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0.84696747517786697</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.28267715180800201</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0.20607359098699096</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>0.35821673238287399</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.56429032336986495</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>66.624792557867877</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1.0851546329552999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>6.9131405694464895E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.51901446383672101</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1.0851546329552999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.4498830581422561</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.5661401691185789</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>6.9131405694464895E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.63527157481304375</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>58.54203221553329</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1.28581561974903</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.12964164581274801</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.57093991164312596</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>1.28581561974903</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0.44129826583037796</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.71487570810590406</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.12964164581274801</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.84451735391865212</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>65.679506528586728</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.92084478697495997</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>6.0380513131349699E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.67487454069514696</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0.92084478697495997</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0.61449402756379723</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>0.24597024627981301</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>6.0380513131349699E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>0.30635075941116269</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>33.268446946151101</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1.26186292934819</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.197843548275106</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.63797477579881501</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>1.26186292934819</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0.44013122752370903</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>0.62388815354937499</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>0.197843548275106</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>0.82173170182448096</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>65.120520043246145</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.90766403553005903</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.105989039248251</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.50787046068471198</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0.90766403553005903</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>0.40188142143646099</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>0.39979357484534706</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>0.105989039248251</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>0.50578261409359804</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>55.723549055045495</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.98871300482687896</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0.15086166792844499</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>0.45853351737029102</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>0.98871300482687896</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>0.307671849441846</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0.53017948745658794</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>0.15086166792844499</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>0.68104115538503296</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>68.881581617739656</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>0.64188842022500003</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.62882066725300001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>0.67495648684499998</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.60989745622000002</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.56245347975500004</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>0.49522328925699999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>0.65580197949800001</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.64563805749500003</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>0.69712819980899998</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>0.64668070622700002</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.60075035148300004</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>0.53569038437600003</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1.1994375624831199</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.121714762494866</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.67781838655058602</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.64333393842739994</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>53.636300758794498</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>1.24623015907892</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.114968193929814</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>0.53225981879400497</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.82893853421472907</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>66.515685579892548</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>0.94356043189376204</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>0.130869938692837</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>0.52937107721493404</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>0.54505929337166503</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>57.766230433986095</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1.3232804597406</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0.26848944036150502</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>0.80107617806493903</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0.79069372203716604</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>59.752542721908256</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.93298087103204397</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>0.13596279046608001</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>0.50174949264278601</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.56719416885533791</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>60.793761851507156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.84696747517786697</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>0.35821673238287399</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>0.64089388419087601</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>0.56429032336986495</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>66.624792557867877</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>1.0851546329552999</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>6.9131405694464895E-2</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>0.51901446383672101</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.63527157481304375</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>58.54203221553329</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>1.28581561974903</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>0.12964164581274801</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>0.57093991164312596</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>0.84451735391865212</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>65.679506528586728</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>0.92084478697495997</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>6.0380513131349699E-2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>0.67487454069514696</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>0.30635075941116269</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>33.268446946151101</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>1.26186292934819</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>0.197843548275106</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>0.63797477579881501</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>0.82173170182448096</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>65.120520043246145</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.90766403553005903</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>0.105989039248251</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>0.50787046068471198</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>0.50578261409359804</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>55.723549055045495</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.98871300482687896</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>0.15086166792844499</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>0.45853351737029102</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>0.68104115538503296</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>68.881581617739656</v>
       </c>
     </row>

--- a/final_table.xlsx
+++ b/final_table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
   <si>
     <t>The DPXA method</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,116 +48,121 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A-data $\Delta\alpha$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{LM}$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{NL}$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{PDF}$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{eff}$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{eff}/\Delta\alpha(\%)$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{eff}/\Delta\alpha(%)$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\Delta\alpha_{eff}/\Delta\alpha(%)$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-data</t>
+  </si>
+  <si>
+    <t>B-data</t>
+  </si>
+  <si>
+    <t>C-data</t>
+  </si>
+  <si>
+    <t>DCCA Hurst Exponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPXA Hurst Exponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period \Rmnum{1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period \Rmnum{2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrogated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-data $\Delta\alpha$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The DPXA method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The DPXA method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-data $\Delta\alpha$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>The DCCA method</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A-data $\Delta\alpha$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{LM}$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{NL}$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{PDF}$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{eff}$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{eff}/\Delta\alpha(\%)$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-data $\Delta\alpha$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The CCA method</t>
   </si>
   <si>
     <t>$\Delta\alpha_{eff}/\Delta\alpha(%)$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\Delta\alpha_{eff}/\Delta\alpha(%)$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-data</t>
-  </si>
-  <si>
-    <t>B-data</t>
-  </si>
-  <si>
-    <t>C-data</t>
-  </si>
-  <si>
-    <t>DCCA Hurst Exponent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPXA Hurst Exponent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period \Rmnum{1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period \Rmnum{2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>surrogated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-data $\Delta\alpha$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The DPXA method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The DPXA method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-data $\Delta\alpha$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The DCCA method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-data $\Delta\alpha$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +174,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -258,11 +263,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -270,7 +286,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,14 +304,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,57 +592,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -634,34 +656,34 @@
       <c r="E2" s="2">
         <v>0.67781838655058602</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>1.1994375624831199</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="9">
         <v>0.55610362405572</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="9">
         <v>0.52161917593253393</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9">
         <v>0.121714762494866</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="9">
         <v>0.64333393842739994</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="9">
         <v>53.636300758794498</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:17">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -674,84 +696,84 @@
       <c r="E3" s="2">
         <v>0.53225981879400497</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>1.24623015907892</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="9">
         <v>0.41729162486419097</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="9">
         <v>0.71397034028491502</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="9">
         <v>0.114968193929814</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="9">
         <v>0.82893853421472907</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="9">
         <v>66.515685579892548</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:17">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -766,34 +788,34 @@
       <c r="E6" s="2">
         <v>0.52937107721493404</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <v>0.94356043189376204</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="9">
         <v>0.39850113852209701</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="9">
         <v>0.414189354678828</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="9">
         <v>0.130869938692837</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="9">
         <v>0.54505929337166503</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="9">
         <v>57.766230433986095</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,85 +828,85 @@
       <c r="E7" s="2">
         <v>0.80107617806493903</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <v>1.3232804597406</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="9">
         <v>0.53258673770343401</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="9">
         <v>0.52220428167566102</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="9">
         <v>0.26848944036150502</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="9">
         <v>0.79069372203716604</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="9">
         <v>59.752542721908256</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -898,34 +920,34 @@
       <c r="E10" s="2">
         <v>0.50174949264278601</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <v>0.93298087103204397</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="9">
         <v>0.365786702176706</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="9">
         <v>0.43123137838925796</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="9">
         <v>0.13596279046608001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="9">
         <v>0.56719416885533791</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="9">
         <v>60.793761851507156</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:17">
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -938,86 +960,86 @@
       <c r="E11" s="2">
         <v>0.64089388419087601</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
         <v>0.84696747517786697</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="9">
         <v>0.28267715180800201</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="9">
         <v>0.20607359098699096</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="9">
         <v>0.35821673238287399</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="9">
         <v>0.56429032336986495</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="9">
         <v>66.624792557867877</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:17">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -1031,34 +1053,34 @@
       <c r="E14" s="2">
         <v>0.51901446383672101</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="9">
         <v>1.0851546329552999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="9">
         <v>0.4498830581422561</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="9">
         <v>0.5661401691185789</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="9">
         <v>6.9131405694464895E-2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="9">
         <v>0.63527157481304375</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="9">
         <v>58.54203221553329</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:17">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1071,81 +1093,81 @@
       <c r="E15" s="2">
         <v>0.57093991164312596</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="9">
         <v>1.28581561974903</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="9">
         <v>0.44129826583037796</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="9">
         <v>0.71487570810590406</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="9">
         <v>0.12964164581274801</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="9">
         <v>0.84451735391865212</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="9">
         <v>65.679506528586728</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1160,33 +1182,33 @@
       <c r="E18" s="2">
         <v>0.67487454069514696</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="9">
         <v>0.92084478697495997</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="9">
         <v>0.61449402756379723</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="9">
         <v>0.24597024627981301</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="9">
         <v>6.0380513131349699E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="9">
         <v>0.30635075941116269</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="9">
         <v>33.268446946151101</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,82 +1221,82 @@
       <c r="E19" s="2">
         <v>0.63797477579881501</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="9">
         <v>1.26186292934819</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="9">
         <v>0.44013122752370903</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="9">
         <v>0.62388815354937499</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="9">
         <v>0.197843548275106</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="9">
         <v>0.82173170182448096</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="9">
         <v>65.120520043246145</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1288,33 +1310,33 @@
       <c r="E22" s="2">
         <v>0.50787046068471198</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="9">
         <v>0.90766403553005903</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="9">
         <v>0.40188142143646099</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="9">
         <v>0.39979357484534706</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="9">
         <v>0.105989039248251</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="9">
         <v>0.50578261409359804</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="9">
         <v>55.723549055045495</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1327,46 +1349,46 @@
       <c r="E23" s="2">
         <v>0.45853351737029102</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="9">
         <v>0.98871300482687896</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="9">
         <v>0.307671849441846</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="9">
         <v>0.53017948745658794</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="9">
         <v>0.15086166792844499</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="9">
         <v>0.68104115538503296</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="9">
         <v>68.881581617739656</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
         <v>0.64188842022500003</v>
@@ -1378,9 +1400,9 @@
         <v>0.67495648684499998</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
         <v>0.60989745622000002</v>
@@ -1392,29 +1414,29 @@
         <v>0.49522328925699999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B30" s="2">
         <v>0.65580197949800001</v>
@@ -1426,9 +1448,9 @@
         <v>0.69712819980899998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
         <v>0.64668070622700002</v>
@@ -1440,30 +1462,30 @@
         <v>0.53569038437600003</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1484,8 +1506,8 @@
         <v>53.636300758794498</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1505,36 +1527,36 @@
         <v>66.515685579892548</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="5"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1556,8 +1578,8 @@
         <v>57.766230433986095</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1577,37 +1599,37 @@
         <v>59.752542721908256</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -1628,8 +1650,8 @@
         <v>60.793761851507156</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1671,7 @@
         <v>66.624792557867877</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1657,30 +1679,30 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -1701,8 +1723,8 @@
         <v>58.54203221553329</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1722,36 +1744,36 @@
         <v>65.679506528586728</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1773,8 +1795,8 @@
         <v>33.268446946151101</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6"/>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1794,37 +1816,37 @@
         <v>65.120520043246145</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
@@ -1845,8 +1867,8 @@
         <v>55.723549055045495</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6"/>
       <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
@@ -1868,18 +1890,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
@@ -1892,18 +1914,18 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_table.xlsx
+++ b/final_table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,10 +292,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,10 +304,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,10 +619,10 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
@@ -641,7 +644,7 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -656,34 +659,34 @@
       <c r="E2" s="2">
         <v>0.67781838655058602</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>1.1994375624831199</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="5">
         <v>0.55610362405572</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="5">
         <v>0.52161917593253393</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>0.121714762494866</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>0.64333393842739994</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="5">
         <v>53.636300758794498</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -696,26 +699,26 @@
       <c r="E3" s="2">
         <v>0.53225981879400497</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>1.24623015907892</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>0.41729162486419097</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>0.71397034028491502</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>0.114968193929814</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="5">
         <v>0.82893853421472907</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="5">
         <v>66.515685579892548</v>
       </c>
       <c r="Q3" s="1"/>
@@ -726,12 +729,12 @@
       <c r="E4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
@@ -748,10 +751,10 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
@@ -773,7 +776,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -788,34 +791,34 @@
       <c r="E6" s="2">
         <v>0.52937107721493404</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>0.94356043189376204</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>0.39850113852209701</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>0.414189354678828</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>0.130869938692837</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <v>0.54505929337166503</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <v>57.766230433986095</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -828,26 +831,26 @@
       <c r="E7" s="2">
         <v>0.80107617806493903</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>1.3232804597406</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>0.53258673770343401</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>0.52220428167566102</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>0.26848944036150502</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>0.79069372203716604</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="5">
         <v>59.752542721908256</v>
       </c>
       <c r="Q7" s="1"/>
@@ -858,12 +861,12 @@
       <c r="E8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
@@ -880,10 +883,10 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="2" t="s">
         <v>10</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -920,34 +923,34 @@
       <c r="E10" s="2">
         <v>0.50174949264278601</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>0.93298087103204397</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>0.365786702176706</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>0.43123137838925796</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <v>0.13596279046608001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <v>0.56719416885533791</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <v>60.793761851507156</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -960,26 +963,26 @@
       <c r="E11" s="2">
         <v>0.64089388419087601</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>0.84696747517786697</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>0.28267715180800201</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <v>0.20607359098699096</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>0.35821673238287399</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="5">
         <v>0.56429032336986495</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="5">
         <v>66.624792557867877</v>
       </c>
       <c r="Q11" s="1"/>
@@ -991,12 +994,12 @@
       <c r="E12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
@@ -1013,10 +1016,10 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1041,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1053,34 +1056,34 @@
       <c r="E14" s="2">
         <v>0.51901446383672101</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <v>1.0851546329552999</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <v>0.4498830581422561</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <v>0.5661401691185789</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <v>6.9131405694464895E-2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <v>0.63527157481304375</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="5">
         <v>58.54203221553329</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1093,26 +1096,26 @@
       <c r="E15" s="2">
         <v>0.57093991164312596</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="5">
         <v>1.28581561974903</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <v>0.44129826583037796</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="5">
         <v>0.71487570810590406</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="5">
         <v>0.12964164581274801</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="5">
         <v>0.84451735391865212</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="5">
         <v>65.679506528586728</v>
       </c>
     </row>
@@ -1122,12 +1125,12 @@
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
@@ -1143,10 +1146,10 @@
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1170,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1177,38 +1180,38 @@
         <v>0.92084478697495997</v>
       </c>
       <c r="D18" s="2">
-        <v>6.0380513131349699E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.67487454069514696</v>
-      </c>
-      <c r="G18" s="4" t="s">
+        <v>4.6739454880242601E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.490010249312399</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="5">
         <v>0.92084478697495997</v>
       </c>
-      <c r="J18" s="9">
-        <v>0.61449402756379723</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.24597024627981301</v>
-      </c>
-      <c r="L18" s="9">
-        <v>6.0380513131349699E-2</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.30635075941116269</v>
-      </c>
-      <c r="N18" s="9">
-        <v>33.268446946151101</v>
+      <c r="J18" s="5">
+        <v>0.44327079443215639</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.43083453766256097</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4.6739454880242601E-2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.47757399254280358</v>
+      </c>
+      <c r="N18" s="5">
+        <v>51.86259392439716</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1221,26 +1224,26 @@
       <c r="E19" s="2">
         <v>0.63797477579881501</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="5">
         <v>1.26186292934819</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
         <v>0.44013122752370903</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="5">
         <v>0.62388815354937499</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="5">
         <v>0.197843548275106</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="5">
         <v>0.82173170182448096</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="5">
         <v>65.120520043246145</v>
       </c>
     </row>
@@ -1250,12 +1253,12 @@
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
@@ -1271,10 +1274,10 @@
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1298,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1310,33 +1313,33 @@
       <c r="E22" s="2">
         <v>0.50787046068471198</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="5">
         <v>0.90766403553005903</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="5">
         <v>0.40188142143646099</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="5">
         <v>0.39979357484534706</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="5">
         <v>0.105989039248251</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="5">
         <v>0.50578261409359804</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="5">
         <v>55.723549055045495</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="6"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1349,26 +1352,26 @@
       <c r="E23" s="2">
         <v>0.45853351737029102</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="5">
         <v>0.98871300482687896</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="5">
         <v>0.307671849441846</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="5">
         <v>0.53017948745658794</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="5">
         <v>0.15086166792844499</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="5">
         <v>0.68104115538503296</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="5">
         <v>68.881581617739656</v>
       </c>
     </row>
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1507,7 +1510,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1559,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1579,7 +1582,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1631,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1651,7 +1654,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="6"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1776,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1796,7 +1799,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1845,7 +1848,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1868,7 +1871,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
@@ -1890,18 +1893,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
@@ -1914,18 +1917,18 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
